--- a/biology/Zoologie/Euryalidae/Euryalidae.xlsx
+++ b/biology/Zoologie/Euryalidae/Euryalidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Euryalidae sont une famille d'ophiures (échinodermes) de l'ordre des Euryalida.
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des ophiures planctonivores pourvues de très longs bras ramifiés ou non, permettant de filtrer l'eau de mer en piégeant le plancton, un peu à la manière de leurs cousines les comatules. Les espèces littorales vivent tassées en boule pendant la journée, et étendent leurs bras la nuit tombée pour se nourrir. La plupart des espèces sont cependant inféodées aux eaux froides ou abyssales.
-Cette famille est très proche des Gorgonocephalidae, mais s'en distingue par l'absence de crochets sur les bras[1]. Elle contient les anciennes familles des Asteroschematidae et Astrocharidae[2].
+Cette famille est très proche des Gorgonocephalidae, mais s'en distingue par l'absence de crochets sur les bras. Elle contient les anciennes familles des Asteroschematidae et Astrocharidae.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (8 janvier 2019)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (8 janvier 2019) :
 genre Asteromorpha Lütken, 1869 -- 3 espèces
 genre Asteroschema Örstedt &amp; Lütken in Lütken, 1856 -- 33 espèces
 genre Asterostegus Mortensen, 1933 -- 3 espèces
